--- a/dist/main/Tables/table_for_params.xlsx
+++ b/dist/main/Tables/table_for_params.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\dist\main\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BCA8A8-BAF3-4D8E-8C32-677A5E65C879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FBC057-7B3B-43A1-B047-7C160D5C85D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3230" yWindow="2070" windowWidth="15970" windowHeight="7530" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>address</t>
   </si>
@@ -189,9 +190,6 @@
     <t>0x5b110f</t>
   </si>
   <si>
-    <t>478494.5454</t>
-  </si>
-  <si>
     <t>scaleB</t>
   </si>
   <si>
@@ -202,15 +200,6 @@
   </si>
   <si>
     <t>scale_format</t>
-  </si>
-  <si>
-    <t>4260364288.0</t>
-  </si>
-  <si>
-    <t>36700160.0</t>
-  </si>
-  <si>
-    <t>29360128.0</t>
   </si>
 </sst>
 </file>
@@ -581,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -600,7 +589,7 @@
     <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -614,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -623,13 +612,13 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -649,23 +638,11 @@
       <c r="J2">
         <v>90</v>
       </c>
-      <c r="K2" t="str">
-        <f>DEC2HEX(J2)</f>
-        <v>5A</v>
-      </c>
-      <c r="L2">
+      <c r="K2">
         <v>29856</v>
       </c>
-      <c r="M2" t="str">
-        <f>DEC2HEX(L2)</f>
-        <v>74A0</v>
-      </c>
-      <c r="N2">
-        <f>L2/D2</f>
-        <v>0.16016006469726563</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -685,19 +662,11 @@
       <c r="J3">
         <v>90</v>
       </c>
-      <c r="K3" t="str">
-        <f t="shared" ref="K3:K21" si="1">DEC2HEX(J3)</f>
-        <v>5A</v>
-      </c>
-      <c r="L3">
+      <c r="K3">
         <v>29856</v>
       </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M21" si="2">DEC2HEX(L3)</f>
-        <v>74A0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -717,19 +686,11 @@
       <c r="J4">
         <v>90</v>
       </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v>5A</v>
-      </c>
-      <c r="L4">
+      <c r="K4">
         <v>29856</v>
       </c>
-      <c r="M4" t="str">
-        <f t="shared" si="2"/>
-        <v>74A0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -749,19 +710,11 @@
       <c r="J5">
         <v>90</v>
       </c>
-      <c r="K5" t="str">
-        <f t="shared" si="1"/>
-        <v>5A</v>
-      </c>
-      <c r="L5">
+      <c r="K5">
         <v>29856</v>
       </c>
-      <c r="M5" t="str">
-        <f t="shared" si="2"/>
-        <v>74A0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -781,19 +734,11 @@
       <c r="J6">
         <v>100</v>
       </c>
-      <c r="K6" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="L6">
+      <c r="K6">
         <v>4128</v>
       </c>
-      <c r="M6" t="str">
-        <f t="shared" si="2"/>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -813,19 +758,11 @@
       <c r="J7">
         <v>100</v>
       </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="L7">
+      <c r="K7">
         <v>4128</v>
       </c>
-      <c r="M7" t="str">
-        <f t="shared" si="2"/>
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -845,19 +782,11 @@
       <c r="J8">
         <v>650</v>
       </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v>28A</v>
-      </c>
-      <c r="L8">
+      <c r="K8">
         <v>1056</v>
       </c>
-      <c r="M8" t="str">
-        <f t="shared" si="2"/>
-        <v>420</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -877,22 +806,11 @@
       <c r="J9">
         <v>35</v>
       </c>
-      <c r="K9" t="str">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="L9">
+      <c r="K9">
         <v>1088</v>
       </c>
-      <c r="M9" t="str">
-        <f t="shared" si="2"/>
-        <v>440</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -912,31 +830,11 @@
       <c r="J10">
         <v>20</v>
       </c>
-      <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L10">
+      <c r="K10">
         <v>12320</v>
       </c>
-      <c r="M10" t="str">
-        <f t="shared" si="2"/>
-        <v>3020</v>
-      </c>
-      <c r="O10">
-        <v>-41.3</v>
-      </c>
-      <c r="P10" t="s">
-        <v>56</v>
-      </c>
-      <c r="S10">
-        <v>43.8</v>
-      </c>
-      <c r="T10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -956,25 +854,11 @@
       <c r="J11">
         <v>20</v>
       </c>
-      <c r="K11" t="str">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="L11">
+      <c r="K11">
         <v>12320</v>
       </c>
-      <c r="M11" t="str">
-        <f t="shared" si="2"/>
-        <v>3020</v>
-      </c>
-      <c r="S11">
-        <v>35</v>
-      </c>
-      <c r="T11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -994,19 +878,11 @@
       <c r="J12">
         <v>8000</v>
       </c>
-      <c r="K12" t="str">
-        <f t="shared" si="1"/>
-        <v>1F40</v>
-      </c>
-      <c r="L12">
+      <c r="K12">
         <v>13344</v>
       </c>
-      <c r="M12" t="str">
-        <f t="shared" si="2"/>
-        <v>3420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1026,19 +902,11 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="K13" t="str">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L13">
+      <c r="K13">
         <v>96</v>
       </c>
-      <c r="M13" t="str">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1046,24 +914,16 @@
         <v>36</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1074,27 +934,16 @@
         <v>15</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
-      <c r="K15" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1105,27 +954,16 @@
         <v>4</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
-      <c r="K16" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1133,24 +971,16 @@
         <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-      <c r="K17" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1161,27 +991,16 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
-      <c r="K18" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1192,27 +1011,16 @@
         <v>4</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
-      <c r="K19" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>65535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1220,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:D21" si="3">16777216/J20</f>
+        <f>16777216/J20</f>
         <v>31068.91851851852</v>
       </c>
       <c r="F20" t="s">
@@ -1232,25 +1040,11 @@
       <c r="J20">
         <v>540</v>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="1"/>
-        <v>21C</v>
-      </c>
-      <c r="L20">
+      <c r="K20">
         <v>2112</v>
       </c>
-      <c r="M20" t="str">
-        <f t="shared" si="2"/>
-        <v>840</v>
-      </c>
-      <c r="O20">
-        <v>355.2</v>
-      </c>
-      <c r="Q20">
-        <v>31068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1258,7 +1052,7 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <f t="shared" si="3"/>
+        <f>16777216/J21</f>
         <v>83886.080000000002</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1270,16 +1064,8 @@
       <c r="J21">
         <v>200</v>
       </c>
-      <c r="K21" t="str">
-        <f t="shared" si="1"/>
-        <v>C8</v>
-      </c>
-      <c r="L21">
+      <c r="K21">
         <v>1056</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="2"/>
-        <v>420</v>
       </c>
     </row>
   </sheetData>

--- a/dist/main/Tables/table_for_params.xlsx
+++ b/dist/main/Tables/table_for_params.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\dist\main\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timofey.inozemtsev\PycharmProjects\VMULogger\venv\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86FBC057-7B3B-43A1-B047-7C160D5C85D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7172F8F-76F8-433B-B9D3-0FE2042D9317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A4B5CDDA-6D92-4066-8E68-82BE124DC49C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>address</t>
   </si>
@@ -193,13 +193,16 @@
     <t>scaleB</t>
   </si>
   <si>
-    <t>4b</t>
-  </si>
-  <si>
     <t>scale_value</t>
   </si>
   <si>
     <t>scale_format</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>sub_index</t>
   </si>
 </sst>
 </file>
@@ -250,12 +253,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -570,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F8E5B6-D8B2-45EE-AA18-93EEC942666A}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,12 +584,10 @@
     <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7265625" customWidth="1"/>
     <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.26953125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -611,14 +609,20 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
         <v>53</v>
       </c>
       <c r="K1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -626,23 +630,26 @@
         <v>43</v>
       </c>
       <c r="D2">
-        <f>16777216/J2</f>
+        <f>16777216/H2</f>
         <v>186413.51111111112</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="2">
-        <v>43</v>
-      </c>
-      <c r="J2">
+      <c r="H2">
         <v>90</v>
       </c>
+      <c r="I2">
+        <v>29856</v>
+      </c>
       <c r="K2">
-        <v>29856</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+        <v>20993</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -650,23 +657,26 @@
         <v>44</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D13" si="0">16777216/J3</f>
+        <f t="shared" ref="D3:D13" si="0">16777216/H3</f>
         <v>186413.51111111112</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="2">
-        <v>43</v>
-      </c>
-      <c r="J3">
+      <c r="H3">
         <v>90</v>
       </c>
+      <c r="I3">
+        <v>29856</v>
+      </c>
       <c r="K3">
-        <v>29856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+        <v>20993</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -680,17 +690,20 @@
       <c r="F4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2">
-        <v>43</v>
-      </c>
-      <c r="J4">
+      <c r="H4">
         <v>90</v>
       </c>
+      <c r="I4">
+        <v>29856</v>
+      </c>
       <c r="K4">
-        <v>29856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>20993</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -704,17 +717,20 @@
       <c r="F5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2">
-        <v>43</v>
-      </c>
-      <c r="J5">
+      <c r="H5">
         <v>90</v>
       </c>
+      <c r="I5">
+        <v>29856</v>
+      </c>
       <c r="K5">
-        <v>29856</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>20993</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -728,17 +744,20 @@
       <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="2">
-        <v>43</v>
-      </c>
-      <c r="J6">
+      <c r="H6">
         <v>100</v>
       </c>
+      <c r="I6">
+        <v>4128</v>
+      </c>
       <c r="K6">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -752,17 +771,20 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2">
-        <v>43</v>
-      </c>
-      <c r="J7">
+      <c r="H7">
         <v>100</v>
       </c>
+      <c r="I7">
+        <v>4128</v>
+      </c>
       <c r="K7">
-        <v>4128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -776,17 +798,20 @@
       <c r="F8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="2">
-        <v>43</v>
-      </c>
-      <c r="J8">
+      <c r="H8">
         <v>650</v>
       </c>
+      <c r="I8">
+        <v>1056</v>
+      </c>
       <c r="K8">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -800,17 +825,20 @@
       <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="2">
-        <v>43</v>
-      </c>
-      <c r="J9">
+      <c r="H9">
         <v>35</v>
       </c>
+      <c r="I9">
+        <v>1088</v>
+      </c>
       <c r="K9">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -824,17 +852,20 @@
       <c r="F10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="2">
-        <v>43</v>
-      </c>
-      <c r="J10">
+      <c r="H10">
         <v>20</v>
       </c>
+      <c r="I10">
+        <v>12320</v>
+      </c>
       <c r="K10">
-        <v>12320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -848,17 +879,20 @@
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>43</v>
-      </c>
-      <c r="J11">
+      <c r="H11">
         <v>20</v>
       </c>
+      <c r="I11">
+        <v>12320</v>
+      </c>
       <c r="K11">
-        <v>12320</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -872,17 +906,20 @@
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="2">
-        <v>43</v>
-      </c>
-      <c r="J12">
+      <c r="H12">
         <v>8000</v>
       </c>
+      <c r="I12">
+        <v>13344</v>
+      </c>
       <c r="K12">
-        <v>13344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -896,34 +933,40 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="2">
-        <v>43</v>
-      </c>
-      <c r="J13">
+      <c r="H13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>96</v>
+      </c>
       <c r="K13">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23313</v>
+      </c>
+      <c r="L13">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23329</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -933,17 +976,20 @@
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23329</v>
+      </c>
+      <c r="L15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -953,34 +999,40 @@
       <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23329</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23330</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -990,17 +1042,20 @@
       <c r="F18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23330</v>
+      </c>
+      <c r="L18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1010,17 +1065,20 @@
       <c r="F19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23330</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1028,23 +1086,26 @@
         <v>41</v>
       </c>
       <c r="D20">
-        <f>16777216/J20</f>
+        <f t="shared" ref="D20:D21" si="1">16777216/H20</f>
         <v>31068.91851851852</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="2">
-        <v>43</v>
-      </c>
-      <c r="J20">
+      <c r="H20">
         <v>540</v>
       </c>
+      <c r="I20">
+        <v>2112</v>
+      </c>
       <c r="K20">
-        <v>2112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+        <v>23334</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1052,24 +1113,27 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <f>16777216/J21</f>
+        <f t="shared" si="1"/>
         <v>83886.080000000002</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="2">
-        <v>43</v>
-      </c>
-      <c r="J21">
+      <c r="H21">
         <v>200</v>
       </c>
+      <c r="I21">
+        <v>1056</v>
+      </c>
       <c r="K21">
-        <v>1056</v>
+        <v>23334</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
     <sortCondition ref="B2:B21"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
